--- a/Result File Football SAN JOSE ST..xlsx
+++ b/Result File Football SAN JOSE ST..xlsx
@@ -529,7 +529,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3B3EF33-8F41-904E-BEB0-6ECC4497AC94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3B3EF33-8F41-904E-BEB0-6ECC4497AC94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -616,7 +616,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B6A5621-FD42-D243-A774-59ECCA3094E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B6A5621-FD42-D243-A774-59ECCA3094E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -697,7 +697,7 @@
         <xdr:cNvPr id="6" name="TextBox 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B0EAF8B-DF9C-8C49-85E6-C85DE6525405}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B0EAF8B-DF9C-8C49-85E6-C85DE6525405}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -769,7 +769,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB8DCED-4244-6F4D-A6DB-E75CC8C66C58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FB8DCED-4244-6F4D-A6DB-E75CC8C66C58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1304,9 +1304,9 @@
       <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="7" t="e">
+      <c r="D5" s="7" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C5,2)</f>
-        <v>#VALUE!</v>
+        <v>go for it</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="15"/>
@@ -1327,13 +1327,13 @@
       <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="e">
+      <c r="D6" s="3" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C6,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E6" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="E6" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C6,2)</f>
-        <v>#VALUE!</v>
+        <v>go for it</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="17"/>
@@ -1353,17 +1353,17 @@
       <c r="C7" s="6">
         <v>3</v>
       </c>
-      <c r="D7" s="7" t="e">
+      <c r="D7" s="7" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C7,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E7" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="E7" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C7,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F7" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="F7" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C7,2)</f>
-        <v>#VALUE!</v>
+        <v>go for it</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="17"/>
@@ -1382,21 +1382,21 @@
       <c r="C8" s="6">
         <v>4</v>
       </c>
-      <c r="D8" s="7" t="e">
+      <c r="D8" s="7" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C8,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E8" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="E8" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C8,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F8" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="F8" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C8,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G8" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="G8" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C8,2)</f>
-        <v>#VALUE!</v>
+        <v>kick</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="17"/>
@@ -1414,25 +1414,25 @@
       <c r="C9" s="6">
         <v>5</v>
       </c>
-      <c r="D9" s="8" t="e">
+      <c r="D9" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C9,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E9" s="8" t="e">
+        <v>kick</v>
+      </c>
+      <c r="E9" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C9,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F9" s="8" t="e">
+        <v>kick</v>
+      </c>
+      <c r="F9" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C9,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G9" s="8" t="e">
+        <v>kick</v>
+      </c>
+      <c r="G9" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C9,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H9" s="8" t="e">
+        <v>kick</v>
+      </c>
+      <c r="H9" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C9,2)</f>
-        <v>#VALUE!</v>
+        <v>kick</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="18"/>
@@ -1449,29 +1449,29 @@
       <c r="C10" s="6">
         <v>6</v>
       </c>
-      <c r="D10" s="7" t="e">
+      <c r="D10" s="7" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C10,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E10" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="E10" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C10,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F10" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="F10" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C10,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G10" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="G10" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C10,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H10" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="H10" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C10,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I10" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="I10" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C10,2)</f>
-        <v>#VALUE!</v>
+        <v>kick</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="17"/>
@@ -1487,33 +1487,33 @@
       <c r="C11" s="6">
         <v>7</v>
       </c>
-      <c r="D11" s="7" t="e">
+      <c r="D11" s="7" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C11,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E11" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="E11" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C11,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F11" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="F11" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C11,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G11" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="G11" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C11,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H11" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="H11" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C11,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I11" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="I11" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C11,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J11" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="J11" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C11,2)</f>
-        <v>#VALUE!</v>
+        <v>kick</v>
       </c>
       <c r="K11" s="16"/>
       <c r="L11" s="11"/>
@@ -1528,37 +1528,37 @@
       <c r="C12" s="6">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="e">
+      <c r="D12" s="3" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C12,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E12" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="E12" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C12,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F12" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="F12" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C12,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G12" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="G12" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C12,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H12" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="H12" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C12,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I12" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="I12" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C12,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J12" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="J12" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C12,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K12" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="K12" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C12,2)</f>
-        <v>#VALUE!</v>
+        <v>kick</v>
       </c>
       <c r="L12" s="13"/>
     </row>
@@ -1572,41 +1572,41 @@
       <c r="C13" s="6">
         <v>9</v>
       </c>
-      <c r="D13" s="7" t="e">
+      <c r="D13" s="7" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C13,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E13" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="E13" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C13,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F13" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="F13" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C13,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G13" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="G13" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C13,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H13" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="H13" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C13,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I13" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="I13" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C13,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J13" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="J13" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C13,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K13" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="K13" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C13,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L13" s="2" t="e">
+        <v>kick</v>
+      </c>
+      <c r="L13" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C13,2)</f>
-        <v>#VALUE!</v>
+        <v>kick</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1619,41 +1619,41 @@
       <c r="C14" s="6">
         <v>10</v>
       </c>
-      <c r="D14" s="21" t="e">
+      <c r="D14" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C14,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E14" s="21" t="e">
+        <v>kick</v>
+      </c>
+      <c r="E14" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C14,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F14" s="21" t="e">
+        <v>kick</v>
+      </c>
+      <c r="F14" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C14,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G14" s="21" t="e">
+        <v>kick</v>
+      </c>
+      <c r="G14" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C14,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H14" s="21" t="e">
+        <v>kick</v>
+      </c>
+      <c r="H14" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C14,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I14" s="21" t="e">
+        <v>kick</v>
+      </c>
+      <c r="I14" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C14,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J14" s="21" t="e">
+        <v>kick</v>
+      </c>
+      <c r="J14" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C14,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K14" s="21" t="e">
+        <v>kick</v>
+      </c>
+      <c r="K14" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C14,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L14" s="21" t="e">
+        <v>kick</v>
+      </c>
+      <c r="L14" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C14,2)</f>
-        <v>#VALUE!</v>
+        <v>kick</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1666,41 +1666,41 @@
       <c r="C15" s="6">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="e">
+      <c r="D15" s="3" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C15,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E15" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="E15" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C15,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F15" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="F15" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C15,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G15" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="G15" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C15,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H15" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="H15" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C15,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I15" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="I15" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C15,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J15" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="J15" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C15,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K15" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="K15" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C15,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L15" s="2" t="e">
+        <v>kick</v>
+      </c>
+      <c r="L15" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C15,2)</f>
-        <v>#VALUE!</v>
+        <v>kick</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1713,41 +1713,41 @@
       <c r="C16" s="6">
         <v>12</v>
       </c>
-      <c r="D16" s="7" t="e">
+      <c r="D16" s="7" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C16,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E16" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="E16" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C16,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F16" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="F16" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C16,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G16" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="G16" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C16,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H16" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="H16" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C16,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I16" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="I16" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C16,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J16" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="J16" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C16,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K16" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="K16" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C16,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L16" s="2" t="e">
+        <v>kick</v>
+      </c>
+      <c r="L16" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C16,2)</f>
-        <v>#VALUE!</v>
+        <v>kick</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1760,41 +1760,41 @@
       <c r="C17" s="6">
         <v>13</v>
       </c>
-      <c r="D17" s="7" t="e">
+      <c r="D17" s="7" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C17,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E17" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="E17" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C17,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F17" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="F17" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C17,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G17" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="G17" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C17,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H17" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="H17" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C17,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I17" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="I17" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C17,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J17" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="J17" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C17,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K17" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="K17" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C17,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L17" s="2" t="e">
+        <v>kick</v>
+      </c>
+      <c r="L17" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C17,2)</f>
-        <v>#VALUE!</v>
+        <v>kick</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1807,41 +1807,41 @@
       <c r="C18" s="6">
         <v>14</v>
       </c>
-      <c r="D18" s="3" t="e">
+      <c r="D18" s="3" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C18,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E18" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="E18" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C18,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F18" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="F18" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C18,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G18" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="G18" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C18,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H18" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="H18" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C18,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I18" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="I18" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C18,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J18" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="J18" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C18,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K18" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="K18" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C18,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L18" s="2" t="e">
+        <v>kick</v>
+      </c>
+      <c r="L18" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C18,2)</f>
-        <v>#VALUE!</v>
+        <v>kick</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1854,41 +1854,41 @@
       <c r="C19" s="6">
         <v>15</v>
       </c>
-      <c r="D19" s="8" t="e">
+      <c r="D19" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C19,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E19" s="8" t="e">
+        <v>kick</v>
+      </c>
+      <c r="E19" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C19,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F19" s="8" t="e">
+        <v>kick</v>
+      </c>
+      <c r="F19" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C19,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G19" s="8" t="e">
+        <v>kick</v>
+      </c>
+      <c r="G19" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C19,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H19" s="8" t="e">
+        <v>kick</v>
+      </c>
+      <c r="H19" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C19,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I19" s="8" t="e">
+        <v>kick</v>
+      </c>
+      <c r="I19" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C19,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J19" s="8" t="e">
+        <v>kick</v>
+      </c>
+      <c r="J19" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C19,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K19" s="8" t="e">
+        <v>kick</v>
+      </c>
+      <c r="K19" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C19,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L19" s="8" t="e">
+        <v>kick</v>
+      </c>
+      <c r="L19" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C19,2)</f>
-        <v>#VALUE!</v>
+        <v>kick</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1901,41 +1901,41 @@
       <c r="C20" s="6">
         <v>16</v>
       </c>
-      <c r="D20" s="7" t="e">
+      <c r="D20" s="7" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C20,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E20" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="E20" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C20,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F20" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="F20" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C20,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G20" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="G20" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C20,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H20" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="H20" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C20,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I20" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="I20" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C20,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J20" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="J20" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C20,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K20" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="K20" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C20,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L20" s="2" t="e">
+        <v>kick</v>
+      </c>
+      <c r="L20" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C20,2)</f>
-        <v>#VALUE!</v>
+        <v>kick</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1948,41 +1948,41 @@
       <c r="C21" s="6">
         <v>17</v>
       </c>
-      <c r="D21" s="3" t="e">
+      <c r="D21" s="3" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C21,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E21" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="E21" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C21,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F21" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="F21" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C21,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G21" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="G21" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C21,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H21" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="H21" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C21,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I21" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="I21" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C21,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J21" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="J21" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C21,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K21" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="K21" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C21,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L21" s="2" t="e">
+        <v>kick</v>
+      </c>
+      <c r="L21" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C21,2)</f>
-        <v>#VALUE!</v>
+        <v>kick</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1995,41 +1995,41 @@
       <c r="C22" s="6">
         <v>18</v>
       </c>
-      <c r="D22" s="7" t="e">
+      <c r="D22" s="7" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C22,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E22" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="E22" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C22,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F22" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="F22" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C22,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G22" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="G22" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C22,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H22" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="H22" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C22,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I22" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="I22" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C22,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J22" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="J22" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C22,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K22" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="K22" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C22,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L22" s="2" t="e">
+        <v>kick</v>
+      </c>
+      <c r="L22" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C22,2)</f>
-        <v>#VALUE!</v>
+        <v>kick</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2042,41 +2042,41 @@
       <c r="C23" s="6">
         <v>19</v>
       </c>
-      <c r="D23" s="7" t="e">
+      <c r="D23" s="7" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C23,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E23" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="E23" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C23,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F23" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="F23" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C23,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G23" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="G23" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C23,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H23" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="H23" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C23,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I23" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="I23" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C23,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J23" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="J23" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C23,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K23" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="K23" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C23,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L23" s="2" t="e">
+        <v>kick</v>
+      </c>
+      <c r="L23" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C23,2)</f>
-        <v>#VALUE!</v>
+        <v>kick</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2089,41 +2089,41 @@
       <c r="C24" s="6">
         <v>20</v>
       </c>
-      <c r="D24" s="21" t="e">
+      <c r="D24" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C24,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E24" s="21" t="e">
+        <v>kick</v>
+      </c>
+      <c r="E24" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C24,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F24" s="21" t="e">
+        <v>kick</v>
+      </c>
+      <c r="F24" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C24,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G24" s="21" t="e">
+        <v>kick</v>
+      </c>
+      <c r="G24" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C24,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H24" s="21" t="e">
+        <v>kick</v>
+      </c>
+      <c r="H24" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C24,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I24" s="21" t="e">
+        <v>kick</v>
+      </c>
+      <c r="I24" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C24,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J24" s="21" t="e">
+        <v>kick</v>
+      </c>
+      <c r="J24" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C24,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K24" s="21" t="e">
+        <v>kick</v>
+      </c>
+      <c r="K24" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C24,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L24" s="21" t="e">
+        <v>kick</v>
+      </c>
+      <c r="L24" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C24,2)</f>
-        <v>#VALUE!</v>
+        <v>kick</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -2136,41 +2136,41 @@
       <c r="C25" s="6">
         <v>21</v>
       </c>
-      <c r="D25" s="7" t="e">
+      <c r="D25" s="7" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C25,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E25" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="E25" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C25,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F25" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="F25" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C25,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G25" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="G25" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C25,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H25" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="H25" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C25,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I25" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="I25" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C25,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J25" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="J25" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C25,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K25" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="K25" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C25,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L25" s="2" t="e">
+        <v>kick</v>
+      </c>
+      <c r="L25" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C25,2)</f>
-        <v>#VALUE!</v>
+        <v>kick</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -2183,41 +2183,41 @@
       <c r="C26" s="6">
         <v>22</v>
       </c>
-      <c r="D26" s="7" t="e">
+      <c r="D26" s="7" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C26,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E26" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="E26" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C26,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F26" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="F26" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C26,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G26" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="G26" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C26,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H26" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="H26" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C26,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I26" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="I26" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C26,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J26" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="J26" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C26,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K26" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="K26" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C26,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L26" s="2" t="e">
+        <v>kick</v>
+      </c>
+      <c r="L26" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C26,2)</f>
-        <v>#VALUE!</v>
+        <v>kick</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -2230,41 +2230,41 @@
       <c r="C27" s="6">
         <v>23</v>
       </c>
-      <c r="D27" s="3" t="e">
+      <c r="D27" s="3" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C27,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E27" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="E27" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C27,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F27" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="F27" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C27,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G27" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="G27" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C27,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H27" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="H27" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C27,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I27" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="I27" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C27,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J27" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="J27" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C27,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K27" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="K27" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C27,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L27" s="2" t="e">
+        <v>kick</v>
+      </c>
+      <c r="L27" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C27,2)</f>
-        <v>#VALUE!</v>
+        <v>kick</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -2277,41 +2277,41 @@
       <c r="C28" s="6">
         <v>24</v>
       </c>
-      <c r="D28" s="7" t="e">
+      <c r="D28" s="7" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C28,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E28" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="E28" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C28,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F28" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="F28" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C28,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G28" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="G28" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C28,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H28" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="H28" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C28,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I28" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="I28" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C28,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J28" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="J28" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C28,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K28" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="K28" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C28,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L28" s="2" t="e">
+        <v>kick</v>
+      </c>
+      <c r="L28" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C28,2)</f>
-        <v>#VALUE!</v>
+        <v>kick</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -2324,41 +2324,41 @@
       <c r="C29" s="6">
         <v>25</v>
       </c>
-      <c r="D29" s="8" t="e">
+      <c r="D29" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C29,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E29" s="8" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="E29" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C29,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F29" s="8" t="e">
+        <v>kick</v>
+      </c>
+      <c r="F29" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C29,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G29" s="8" t="e">
+        <v>kick</v>
+      </c>
+      <c r="G29" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C29,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H29" s="8" t="e">
+        <v>kick</v>
+      </c>
+      <c r="H29" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C29,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I29" s="8" t="e">
+        <v>kick</v>
+      </c>
+      <c r="I29" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C29,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J29" s="8" t="e">
+        <v>kick</v>
+      </c>
+      <c r="J29" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C29,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K29" s="8" t="e">
+        <v>kick</v>
+      </c>
+      <c r="K29" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C29,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L29" s="8" t="e">
+        <v>kick</v>
+      </c>
+      <c r="L29" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C29,2)</f>
-        <v>#VALUE!</v>
+        <v>kick</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -2371,41 +2371,41 @@
       <c r="C30" s="6">
         <v>26</v>
       </c>
-      <c r="D30" s="3" t="e">
+      <c r="D30" s="3" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C30,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E30" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="E30" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C30,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F30" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="F30" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C30,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G30" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="G30" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C30,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H30" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="H30" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C30,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I30" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="I30" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C30,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J30" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="J30" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C30,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K30" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="K30" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C30,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L30" s="2" t="e">
+        <v>kick</v>
+      </c>
+      <c r="L30" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C30,2)</f>
-        <v>#VALUE!</v>
+        <v>kick</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -2418,41 +2418,41 @@
       <c r="C31" s="6">
         <v>27</v>
       </c>
-      <c r="D31" s="7" t="e">
+      <c r="D31" s="7" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C31,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E31" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="E31" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C31,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F31" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="F31" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C31,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G31" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="G31" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C31,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H31" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="H31" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C31,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I31" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="I31" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C31,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J31" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="J31" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C31,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K31" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="K31" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C31,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L31" s="2" t="e">
+        <v>kick</v>
+      </c>
+      <c r="L31" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C31,2)</f>
-        <v>#VALUE!</v>
+        <v>kick</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -2465,41 +2465,41 @@
       <c r="C32" s="6">
         <v>28</v>
       </c>
-      <c r="D32" s="7" t="e">
+      <c r="D32" s="7" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C32,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E32" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="E32" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C32,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F32" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="F32" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C32,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G32" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="G32" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C32,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H32" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="H32" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C32,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I32" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="I32" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C32,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J32" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="J32" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C32,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K32" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="K32" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C32,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L32" s="2" t="e">
+        <v>kick</v>
+      </c>
+      <c r="L32" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C32,2)</f>
-        <v>#VALUE!</v>
+        <v>kick</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -2512,41 +2512,41 @@
       <c r="C33" s="6">
         <v>29</v>
       </c>
-      <c r="D33" s="3" t="e">
+      <c r="D33" s="3" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C33,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E33" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="E33" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C33,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F33" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="F33" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C33,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G33" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="G33" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C33,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H33" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="H33" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C33,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I33" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="I33" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C33,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J33" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="J33" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C33,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K33" s="4" t="e">
+        <v>kick</v>
+      </c>
+      <c r="K33" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C33,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L33" s="2" t="e">
+        <v>kick</v>
+      </c>
+      <c r="L33" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C33,2)</f>
-        <v>#VALUE!</v>
+        <v>kick</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -2559,41 +2559,41 @@
       <c r="C34" s="6">
         <v>30</v>
       </c>
-      <c r="D34" s="21" t="e">
+      <c r="D34" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C34,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E34" s="21" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="E34" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C34,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F34" s="21" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="F34" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C34,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G34" s="21" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="G34" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C34,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H34" s="21" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="H34" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C34,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I34" s="21" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="I34" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C34,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J34" s="21" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="J34" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C34,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K34" s="21" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="K34" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C34,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L34" s="21" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="L34" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C34,2)</f>
-        <v>#VALUE!</v>
+        <v>go for it</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -2606,41 +2606,41 @@
       <c r="C35" s="6">
         <v>31</v>
       </c>
-      <c r="D35" s="7" t="e">
+      <c r="D35" s="7" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C35,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E35" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="E35" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C35,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F35" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="F35" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C35,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G35" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="G35" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C35,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H35" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="H35" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C35,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I35" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="I35" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C35,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J35" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="J35" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C35,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K35" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="K35" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C35,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L35" s="2" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="L35" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C35,2)</f>
-        <v>#VALUE!</v>
+        <v>go for it</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -2653,41 +2653,41 @@
       <c r="C36" s="6">
         <v>32</v>
       </c>
-      <c r="D36" s="3" t="e">
+      <c r="D36" s="3" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C36,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E36" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="E36" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C36,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F36" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="F36" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C36,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G36" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="G36" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C36,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H36" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="H36" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C36,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I36" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="I36" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C36,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J36" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="J36" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C36,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K36" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="K36" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C36,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L36" s="2" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="L36" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C36,2)</f>
-        <v>#VALUE!</v>
+        <v>go for it</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -2700,41 +2700,41 @@
       <c r="C37" s="6">
         <v>33</v>
       </c>
-      <c r="D37" s="7" t="e">
+      <c r="D37" s="7" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C37,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E37" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="E37" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C37,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F37" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="F37" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C37,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G37" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="G37" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C37,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H37" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="H37" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C37,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I37" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="I37" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C37,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J37" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="J37" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C37,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K37" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="K37" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C37,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L37" s="2" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="L37" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C37,2)</f>
-        <v>#VALUE!</v>
+        <v>go for it</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -2747,41 +2747,41 @@
       <c r="C38" s="6">
         <v>34</v>
       </c>
-      <c r="D38" s="7" t="e">
+      <c r="D38" s="7" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C38,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E38" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="E38" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C38,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F38" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="F38" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C38,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G38" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="G38" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C38,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H38" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="H38" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C38,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I38" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="I38" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C38,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J38" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="J38" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C38,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K38" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="K38" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C38,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L38" s="2" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="L38" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C38,2)</f>
-        <v>#VALUE!</v>
+        <v>go for it</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -2794,41 +2794,41 @@
       <c r="C39" s="6">
         <v>35</v>
       </c>
-      <c r="D39" s="8" t="e">
+      <c r="D39" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C39,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E39" s="8" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="E39" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C39,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F39" s="8" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="F39" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C39,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G39" s="8" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="G39" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C39,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H39" s="8" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="H39" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C39,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I39" s="8" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="I39" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C39,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J39" s="8" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="J39" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C39,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K39" s="8" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="K39" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C39,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L39" s="8" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="L39" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C39,2)</f>
-        <v>#VALUE!</v>
+        <v>go for it</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -2841,41 +2841,41 @@
       <c r="C40" s="6">
         <v>36</v>
       </c>
-      <c r="D40" s="7" t="e">
+      <c r="D40" s="7" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C40,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E40" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="E40" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C40,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F40" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="F40" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C40,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G40" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="G40" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C40,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H40" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="H40" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C40,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I40" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="I40" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C40,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J40" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="J40" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C40,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K40" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="K40" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C40,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L40" s="2" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="L40" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C40,2)</f>
-        <v>#VALUE!</v>
+        <v>punt</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -2888,41 +2888,41 @@
       <c r="C41" s="6">
         <v>37</v>
       </c>
-      <c r="D41" s="7" t="e">
+      <c r="D41" s="7" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C41,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E41" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="E41" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C41,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F41" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="F41" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C41,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G41" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="G41" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C41,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H41" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="H41" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C41,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I41" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="I41" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C41,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J41" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="J41" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C41,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K41" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="K41" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C41,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L41" s="2" t="e">
+        <v>punt</v>
+      </c>
+      <c r="L41" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C41,2)</f>
-        <v>#VALUE!</v>
+        <v>punt</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -2935,41 +2935,41 @@
       <c r="C42" s="6">
         <v>38</v>
       </c>
-      <c r="D42" s="3" t="e">
+      <c r="D42" s="3" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C42,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E42" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="E42" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C42,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F42" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="F42" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C42,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G42" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="G42" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C42,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H42" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="H42" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C42,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I42" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="I42" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C42,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J42" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="J42" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C42,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K42" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="K42" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C42,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L42" s="2" t="e">
+        <v>punt</v>
+      </c>
+      <c r="L42" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C42,2)</f>
-        <v>#VALUE!</v>
+        <v>punt</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -2982,41 +2982,41 @@
       <c r="C43" s="6">
         <v>39</v>
       </c>
-      <c r="D43" s="7" t="e">
+      <c r="D43" s="7" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C43,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E43" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="E43" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C43,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F43" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="F43" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C43,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G43" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="G43" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C43,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H43" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="H43" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C43,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I43" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="I43" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C43,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J43" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="J43" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C43,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K43" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="K43" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C43,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L43" s="2" t="e">
+        <v>punt</v>
+      </c>
+      <c r="L43" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C43,2)</f>
-        <v>#VALUE!</v>
+        <v>punt</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -3029,41 +3029,41 @@
       <c r="C44" s="6">
         <v>40</v>
       </c>
-      <c r="D44" s="21" t="e">
+      <c r="D44" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C44,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E44" s="21" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="E44" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C44,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F44" s="21" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="F44" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C44,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G44" s="21" t="e">
+        <v>punt</v>
+      </c>
+      <c r="G44" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C44,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H44" s="21" t="e">
+        <v>punt</v>
+      </c>
+      <c r="H44" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C44,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I44" s="21" t="e">
+        <v>punt</v>
+      </c>
+      <c r="I44" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C44,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J44" s="21" t="e">
+        <v>punt</v>
+      </c>
+      <c r="J44" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C44,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K44" s="21" t="e">
+        <v>punt</v>
+      </c>
+      <c r="K44" s="21" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C44,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L44" s="5" t="e">
+        <v>punt</v>
+      </c>
+      <c r="L44" s="5" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C44,2)</f>
-        <v>#VALUE!</v>
+        <v>punt</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -3076,41 +3076,41 @@
       <c r="C45" s="6">
         <v>41</v>
       </c>
-      <c r="D45" s="3" t="e">
+      <c r="D45" s="3" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C45,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E45" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="E45" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C45,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F45" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="F45" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C45,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G45" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="G45" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C45,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H45" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="H45" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C45,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I45" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="I45" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C45,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J45" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="J45" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C45,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K45" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="K45" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C45,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L45" s="2" t="e">
+        <v>punt</v>
+      </c>
+      <c r="L45" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C45,2)</f>
-        <v>#VALUE!</v>
+        <v>punt</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -3123,41 +3123,41 @@
       <c r="C46" s="6">
         <v>42</v>
       </c>
-      <c r="D46" s="7" t="e">
+      <c r="D46" s="7" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C46,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E46" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="E46" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C46,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F46" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="F46" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C46,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G46" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="G46" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C46,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H46" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="H46" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C46,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I46" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="I46" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C46,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J46" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="J46" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C46,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K46" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="K46" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C46,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L46" s="2" t="e">
+        <v>punt</v>
+      </c>
+      <c r="L46" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C46,2)</f>
-        <v>#VALUE!</v>
+        <v>punt</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -3170,41 +3170,41 @@
       <c r="C47" s="6">
         <v>43</v>
       </c>
-      <c r="D47" s="3" t="e">
+      <c r="D47" s="3" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C47,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E47" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="E47" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C47,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F47" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="F47" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C47,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G47" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="G47" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C47,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H47" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="H47" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C47,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I47" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="I47" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C47,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J47" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="J47" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C47,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K47" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="K47" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C47,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L47" s="2" t="e">
+        <v>punt</v>
+      </c>
+      <c r="L47" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C47,2)</f>
-        <v>#VALUE!</v>
+        <v>punt</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -3217,41 +3217,41 @@
       <c r="C48" s="6">
         <v>44</v>
       </c>
-      <c r="D48" s="7" t="e">
+      <c r="D48" s="7" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C48,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E48" s="4" t="e">
+        <v>go for it</v>
+      </c>
+      <c r="E48" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C48,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F48" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="F48" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C48,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G48" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="G48" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C48,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H48" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="H48" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C48,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I48" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="I48" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C48,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J48" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="J48" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C48,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K48" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="K48" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C48,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L48" s="2" t="e">
+        <v>punt</v>
+      </c>
+      <c r="L48" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C48,2)</f>
-        <v>#VALUE!</v>
+        <v>punt</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -3264,41 +3264,41 @@
       <c r="C49" s="6">
         <v>45</v>
       </c>
-      <c r="D49" s="8" t="e">
+      <c r="D49" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C49,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E49" s="8" t="e">
+        <v>punt</v>
+      </c>
+      <c r="E49" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C49,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F49" s="8" t="e">
+        <v>punt</v>
+      </c>
+      <c r="F49" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C49,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G49" s="8" t="e">
+        <v>punt</v>
+      </c>
+      <c r="G49" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C49,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H49" s="8" t="e">
+        <v>punt</v>
+      </c>
+      <c r="H49" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C49,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I49" s="8" t="e">
+        <v>punt</v>
+      </c>
+      <c r="I49" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C49,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J49" s="8" t="e">
+        <v>punt</v>
+      </c>
+      <c r="J49" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C49,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K49" s="8" t="e">
+        <v>punt</v>
+      </c>
+      <c r="K49" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C49,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L49" s="8" t="e">
+        <v>punt</v>
+      </c>
+      <c r="L49" s="8" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C49,2)</f>
-        <v>#VALUE!</v>
+        <v>punt</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -3311,41 +3311,41 @@
       <c r="C50" s="6">
         <v>46</v>
       </c>
-      <c r="D50" s="3" t="e">
+      <c r="D50" s="3" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C50,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="E50" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C50,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F50" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="F50" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C50,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G50" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="G50" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C50,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H50" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="H50" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C50,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I50" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="I50" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C50,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J50" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="J50" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C50,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K50" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="K50" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C50,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L50" s="2" t="e">
+        <v>punt</v>
+      </c>
+      <c r="L50" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C50,2)</f>
-        <v>#VALUE!</v>
+        <v>punt</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -3358,41 +3358,41 @@
       <c r="C51" s="6">
         <v>47</v>
       </c>
-      <c r="D51" s="7" t="e">
+      <c r="D51" s="7" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C51,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E51" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="E51" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C51,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F51" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="F51" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C51,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G51" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="G51" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C51,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H51" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="H51" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C51,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I51" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="I51" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C51,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J51" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="J51" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C51,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K51" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="K51" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C51,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L51" s="2" t="e">
+        <v>punt</v>
+      </c>
+      <c r="L51" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C51,2)</f>
-        <v>#VALUE!</v>
+        <v>punt</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -3405,41 +3405,41 @@
       <c r="C52" s="6">
         <v>48</v>
       </c>
-      <c r="D52" s="7" t="e">
+      <c r="D52" s="7" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C52,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E52" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="E52" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C52,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F52" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="F52" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C52,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G52" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="G52" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C52,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H52" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="H52" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C52,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I52" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="I52" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C52,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J52" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="J52" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C52,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K52" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="K52" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C52,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L52" s="2" t="e">
+        <v>punt</v>
+      </c>
+      <c r="L52" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C52,2)</f>
-        <v>#VALUE!</v>
+        <v>punt</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -3452,41 +3452,41 @@
       <c r="C53" s="6">
         <v>49</v>
       </c>
-      <c r="D53" s="3" t="e">
+      <c r="D53" s="3" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C53,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E53" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="E53" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C53,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F53" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="F53" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C53,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G53" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="G53" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C53,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H53" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="H53" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C53,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I53" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="I53" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C53,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J53" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="J53" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C53,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K53" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="K53" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C53,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L53" s="2" t="e">
+        <v>punt</v>
+      </c>
+      <c r="L53" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C53,2)</f>
-        <v>#VALUE!</v>
+        <v>punt</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -3497,41 +3497,41 @@
       <c r="C54" s="6">
         <v>50</v>
       </c>
-      <c r="D54" s="7" t="e">
+      <c r="D54" s="7" t="str">
         <f ca="1">OFFSET('[1]4th and 1'!$A$1,$C54,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E54" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="E54" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 2'!$A$1,$C54,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F54" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="F54" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 3'!$A$1,$C54,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G54" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="G54" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 4'!$A$1,$C54,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H54" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="H54" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 5'!$A$1,$C54,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I54" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="I54" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 6'!$A$1,$C54,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J54" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="J54" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 7'!$A$1,$C54,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K54" s="4" t="e">
+        <v>punt</v>
+      </c>
+      <c r="K54" s="4" t="str">
         <f ca="1">OFFSET('[1]4th and 8'!$A$1,$C54,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L54" s="2" t="e">
+        <v>punt</v>
+      </c>
+      <c r="L54" s="2" t="str">
         <f ca="1">OFFSET('[1]4th and 9'!$A$1,$C54,2)</f>
-        <v>#VALUE!</v>
+        <v>punt</v>
       </c>
     </row>
   </sheetData>
